--- a/published-data/fonds-solidarite/fds-2021-01-28/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-01-28/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -425,13 +425,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>495880</v>
+        <v>495872</v>
       </c>
       <c r="D2" t="n">
         <v>149991</v>
       </c>
       <c r="E2" t="n">
-        <v>764056368</v>
+        <v>764044962</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>117227</v>
+        <v>117226</v>
       </c>
       <c r="D19" t="n">
         <v>36719</v>
       </c>
       <c r="E19" t="n">
-        <v>178792666</v>
+        <v>178790026</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1696,13 +1696,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>143110</v>
+        <v>143111</v>
       </c>
       <c r="D33" t="n">
         <v>46802</v>
       </c>
       <c r="E33" t="n">
-        <v>222709592</v>
+        <v>222701540</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2188,13 +2188,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>103205</v>
+        <v>103206</v>
       </c>
       <c r="D45" t="n">
         <v>32564</v>
       </c>
       <c r="E45" t="n">
-        <v>159030481</v>
+        <v>159030588</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>31010</v>
+        <v>31011</v>
       </c>
       <c r="D58" t="n">
         <v>9164</v>
       </c>
       <c r="E58" t="n">
-        <v>50754757</v>
+        <v>50755569</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3090,13 +3090,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>216239</v>
+        <v>216238</v>
       </c>
       <c r="D67" t="n">
         <v>68501</v>
       </c>
       <c r="E67" t="n">
-        <v>341221033</v>
+        <v>341218723</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -4279,13 +4279,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>214600</v>
+        <v>214593</v>
       </c>
       <c r="D96" t="n">
         <v>65950</v>
       </c>
       <c r="E96" t="n">
-        <v>323466892</v>
+        <v>323457894</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4894,13 +4894,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>857411</v>
+        <v>857392</v>
       </c>
       <c r="D111" t="n">
         <v>212761</v>
       </c>
       <c r="E111" t="n">
-        <v>1399776787</v>
+        <v>1399724697</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -6575,13 +6575,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>132096</v>
+        <v>132100</v>
       </c>
       <c r="D152" t="n">
-        <v>41344</v>
+        <v>41347</v>
       </c>
       <c r="E152" t="n">
-        <v>206503902</v>
+        <v>206515908</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -7067,13 +7067,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>350726</v>
+        <v>350727</v>
       </c>
       <c r="D164" t="n">
         <v>111453</v>
       </c>
       <c r="E164" t="n">
-        <v>521026552</v>
+        <v>521029317</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7805,13 +7805,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>399650</v>
+        <v>399651</v>
       </c>
       <c r="D182" t="n">
-        <v>122960</v>
+        <v>122962</v>
       </c>
       <c r="E182" t="n">
-        <v>581423997</v>
+        <v>581422622</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>50908</v>
       </c>
       <c r="E201" t="n">
-        <v>241513443</v>
+        <v>241519133</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -9117,13 +9117,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>402274</v>
+        <v>402275</v>
       </c>
       <c r="D214" t="n">
         <v>117101</v>
       </c>
       <c r="E214" t="n">
-        <v>605027631</v>
+        <v>605029400</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
